--- a/Estructura de mi File System.xlsx
+++ b/Estructura de mi File System.xlsx
@@ -121,6 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -375,8 +378,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,7 +405,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -726,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,28 +748,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5">
         <v>50</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>4</v>
       </c>
       <c r="H4">
@@ -772,310 +778,429 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="13">
         <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="I7" s="13" t="s">
+      <c r="B7" s="8"/>
+      <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="13">
-        <f>SUM(B13:F13)</f>
-        <v>70</v>
+      <c r="J7" s="14">
+        <f>SUM(A13:F13)</f>
+        <v>72</v>
       </c>
       <c r="K7">
         <f>J7*J6</f>
-        <v>35840</v>
-      </c>
-      <c r="L7" s="11">
+        <v>36864</v>
+      </c>
+      <c r="L7" s="12">
         <f>K7/1024</f>
-        <v>35</v>
-      </c>
-      <c r="M7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L11">
         <f>L7/4</f>
-        <v>8.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
         <v>50</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13">
         <f>SUM(A13:F13)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>74</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="1">
+        <f>A33+72 -1</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>G33+1</f>
+        <v>146</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G47" si="0">A34+72 -1</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>G34+1</f>
+        <v>218</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:A47" si="1">G35+1</f>
+        <v>290</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>794</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>866</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>938</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>1153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
